--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd80-Cd274.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd80-Cd274.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.30378235703663</v>
+        <v>1.3106835</v>
       </c>
       <c r="H2">
-        <v>1.30378235703663</v>
+        <v>2.621367</v>
       </c>
       <c r="I2">
-        <v>0.03819106114312529</v>
+        <v>0.03638853870331563</v>
       </c>
       <c r="J2">
-        <v>0.03819106114312529</v>
+        <v>0.02494331542607714</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.371047606871199</v>
+        <v>8.7735875</v>
       </c>
       <c r="N2">
-        <v>8.371047606871199</v>
+        <v>17.547175</v>
       </c>
       <c r="O2">
-        <v>0.1839312486087846</v>
+        <v>0.171126311618442</v>
       </c>
       <c r="P2">
-        <v>0.1839312486087846</v>
+        <v>0.1219656100585016</v>
       </c>
       <c r="Q2">
-        <v>10.91402417975237</v>
+        <v>11.49939637205625</v>
       </c>
       <c r="R2">
-        <v>10.91402417975237</v>
+        <v>45.997585488225</v>
       </c>
       <c r="S2">
-        <v>0.007024529561749471</v>
+        <v>0.006227036413483327</v>
       </c>
       <c r="T2">
-        <v>0.007024529561749471</v>
+        <v>0.003042226682823132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.30378235703663</v>
+        <v>1.3106835</v>
       </c>
       <c r="H3">
-        <v>1.30378235703663</v>
+        <v>2.621367</v>
       </c>
       <c r="I3">
-        <v>0.03819106114312529</v>
+        <v>0.03638853870331563</v>
       </c>
       <c r="J3">
-        <v>0.03819106114312529</v>
+        <v>0.02494331542607714</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.997655175184464</v>
+        <v>1.161330666666667</v>
       </c>
       <c r="N3">
-        <v>0.997655175184464</v>
+        <v>3.483992</v>
       </c>
       <c r="O3">
-        <v>0.02192078825379897</v>
+        <v>0.02265142207290381</v>
       </c>
       <c r="P3">
-        <v>0.02192078825379897</v>
+        <v>0.02421627468347122</v>
       </c>
       <c r="Q3">
-        <v>1.300725215811793</v>
+        <v>1.522136942844</v>
       </c>
       <c r="R3">
-        <v>1.300725215811793</v>
+        <v>9.132821657064</v>
       </c>
       <c r="S3">
-        <v>0.0008371781645063392</v>
+        <v>0.0008242521487849982</v>
       </c>
       <c r="T3">
-        <v>0.0008371781645063392</v>
+        <v>0.0006040341778743489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.30378235703663</v>
+        <v>1.3106835</v>
       </c>
       <c r="H4">
-        <v>1.30378235703663</v>
+        <v>2.621367</v>
       </c>
       <c r="I4">
-        <v>0.03819106114312529</v>
+        <v>0.03638853870331563</v>
       </c>
       <c r="J4">
-        <v>0.03819106114312529</v>
+        <v>0.02494331542607714</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.56087986054855</v>
+        <v>7.719567000000001</v>
       </c>
       <c r="N4">
-        <v>6.56087986054855</v>
+        <v>23.158701</v>
       </c>
       <c r="O4">
-        <v>0.1441576826934286</v>
+        <v>0.1505679436150197</v>
       </c>
       <c r="P4">
-        <v>0.1441576826934286</v>
+        <v>0.1609697911844745</v>
       </c>
       <c r="Q4">
-        <v>8.553959408820145</v>
+        <v>10.1179090940445</v>
       </c>
       <c r="R4">
-        <v>8.553959408820145</v>
+        <v>60.70745456426701</v>
       </c>
       <c r="S4">
-        <v>0.005505534873995986</v>
+        <v>0.005478947443713788</v>
       </c>
       <c r="T4">
-        <v>0.005505534873995986</v>
+        <v>0.004015120275584118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.30378235703663</v>
+        <v>1.3106835</v>
       </c>
       <c r="H5">
-        <v>1.30378235703663</v>
+        <v>2.621367</v>
       </c>
       <c r="I5">
-        <v>0.03819106114312529</v>
+        <v>0.03638853870331563</v>
       </c>
       <c r="J5">
-        <v>0.03819106114312529</v>
+        <v>0.02494331542607714</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.284593633582</v>
+        <v>16.007757</v>
       </c>
       <c r="N5">
-        <v>15.284593633582</v>
+        <v>48.023271</v>
       </c>
       <c r="O5">
-        <v>0.3358378214448343</v>
+        <v>0.3122267160034931</v>
       </c>
       <c r="P5">
-        <v>0.3358378214448343</v>
+        <v>0.3337966108230954</v>
       </c>
       <c r="Q5">
-        <v>19.92778351393861</v>
+        <v>20.9811029719095</v>
       </c>
       <c r="R5">
-        <v>19.92778351393861</v>
+        <v>125.886617831457</v>
       </c>
       <c r="S5">
-        <v>0.01282600277297366</v>
+        <v>0.01136147393950224</v>
       </c>
       <c r="T5">
-        <v>0.01282600277297366</v>
+        <v>0.008325994151915981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.30378235703663</v>
+        <v>1.3106835</v>
       </c>
       <c r="H6">
-        <v>1.30378235703663</v>
+        <v>2.621367</v>
       </c>
       <c r="I6">
-        <v>0.03819106114312529</v>
+        <v>0.03638853870331563</v>
       </c>
       <c r="J6">
-        <v>0.03819106114312529</v>
+        <v>0.02494331542607714</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1337881483131</v>
+        <v>16.441887</v>
       </c>
       <c r="N6">
-        <v>13.1337881483131</v>
+        <v>49.325661</v>
       </c>
       <c r="O6">
-        <v>0.2885796577120882</v>
+        <v>0.3206942973278844</v>
       </c>
       <c r="P6">
-        <v>0.2885796577120882</v>
+        <v>0.3428491671966479</v>
       </c>
       <c r="Q6">
-        <v>17.12360126882741</v>
+        <v>21.5501099997645</v>
       </c>
       <c r="R6">
-        <v>17.12360126882741</v>
+        <v>129.300659998587</v>
       </c>
       <c r="S6">
-        <v>0.01102116335234453</v>
+        <v>0.01166959685024833</v>
       </c>
       <c r="T6">
-        <v>0.01102116335234453</v>
+        <v>0.008551794920953846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.30378235703663</v>
+        <v>1.3106835</v>
       </c>
       <c r="H7">
-        <v>1.30378235703663</v>
+        <v>2.621367</v>
       </c>
       <c r="I7">
-        <v>0.03819106114312529</v>
+        <v>0.03638853870331563</v>
       </c>
       <c r="J7">
-        <v>0.03819106114312529</v>
+        <v>0.02494331542607714</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.16386496929841</v>
+        <v>1.165529</v>
       </c>
       <c r="N7">
-        <v>1.16386496929841</v>
+        <v>2.331058</v>
       </c>
       <c r="O7">
-        <v>0.02557280128706537</v>
+        <v>0.02273330936225701</v>
       </c>
       <c r="P7">
-        <v>0.02557280128706537</v>
+        <v>0.01620254605380927</v>
       </c>
       <c r="Q7">
-        <v>1.517426612944246</v>
+        <v>1.5276396290715</v>
       </c>
       <c r="R7">
-        <v>1.517426612944246</v>
+        <v>6.110558516286001</v>
       </c>
       <c r="S7">
-        <v>0.0009766524175553067</v>
+        <v>0.0008272319075829368</v>
       </c>
       <c r="T7">
-        <v>0.0009766524175553067</v>
+        <v>0.0004041452169257059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.36915082219686</v>
+        <v>1.420479333333333</v>
       </c>
       <c r="H8">
-        <v>1.36915082219686</v>
+        <v>4.261438</v>
       </c>
       <c r="I8">
-        <v>0.04010586773357561</v>
+        <v>0.03943680316282304</v>
       </c>
       <c r="J8">
-        <v>0.04010586773357561</v>
+        <v>0.04054922191462366</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.371047606871199</v>
+        <v>8.7735875</v>
       </c>
       <c r="N8">
-        <v>8.371047606871199</v>
+        <v>17.547175</v>
       </c>
       <c r="O8">
-        <v>0.1839312486087846</v>
+        <v>0.171126311618442</v>
       </c>
       <c r="P8">
-        <v>0.1839312486087846</v>
+        <v>0.1219656100585016</v>
       </c>
       <c r="Q8">
-        <v>11.46122671359676</v>
+        <v>12.46269972294167</v>
       </c>
       <c r="R8">
-        <v>11.46122671359676</v>
+        <v>74.77619833765</v>
       </c>
       <c r="S8">
-        <v>0.007376722328775329</v>
+        <v>0.006748674667276414</v>
       </c>
       <c r="T8">
-        <v>0.007376722328775329</v>
+        <v>0.004945610588214637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.36915082219686</v>
+        <v>1.420479333333333</v>
       </c>
       <c r="H9">
-        <v>1.36915082219686</v>
+        <v>4.261438</v>
       </c>
       <c r="I9">
-        <v>0.04010586773357561</v>
+        <v>0.03943680316282304</v>
       </c>
       <c r="J9">
-        <v>0.04010586773357561</v>
+        <v>0.04054922191462366</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.997655175184464</v>
+        <v>1.161330666666667</v>
       </c>
       <c r="N9">
-        <v>0.997655175184464</v>
+        <v>3.483992</v>
       </c>
       <c r="O9">
-        <v>0.02192078825379897</v>
+        <v>0.02265142207290381</v>
       </c>
       <c r="P9">
-        <v>0.02192078825379897</v>
+        <v>0.02421627468347122</v>
       </c>
       <c r="Q9">
-        <v>1.365940403372761</v>
+        <v>1.649646211166222</v>
       </c>
       <c r="R9">
-        <v>1.365940403372761</v>
+        <v>14.846815900496</v>
       </c>
       <c r="S9">
-        <v>0.0008791522343225795</v>
+        <v>0.0008932996736471327</v>
       </c>
       <c r="T9">
-        <v>0.0008791522343225795</v>
+        <v>0.0009819510960855575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.36915082219686</v>
+        <v>1.420479333333333</v>
       </c>
       <c r="H10">
-        <v>1.36915082219686</v>
+        <v>4.261438</v>
       </c>
       <c r="I10">
-        <v>0.04010586773357561</v>
+        <v>0.03943680316282304</v>
       </c>
       <c r="J10">
-        <v>0.04010586773357561</v>
+        <v>0.04054922191462366</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.56087986054855</v>
+        <v>7.719567000000001</v>
       </c>
       <c r="N10">
-        <v>6.56087986054855</v>
+        <v>23.158701</v>
       </c>
       <c r="O10">
-        <v>0.1441576826934286</v>
+        <v>0.1505679436150197</v>
       </c>
       <c r="P10">
-        <v>0.1441576826934286</v>
+        <v>0.1609697911844745</v>
       </c>
       <c r="Q10">
-        <v>8.982834055404867</v>
+        <v>10.965485385782</v>
       </c>
       <c r="R10">
-        <v>8.982834055404867</v>
+        <v>98.689368472038</v>
       </c>
       <c r="S10">
-        <v>0.00578156895488141</v>
+        <v>0.005937918354976569</v>
       </c>
       <c r="T10">
-        <v>0.00578156895488141</v>
+        <v>0.006527199784289888</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.36915082219686</v>
+        <v>1.420479333333333</v>
       </c>
       <c r="H11">
-        <v>1.36915082219686</v>
+        <v>4.261438</v>
       </c>
       <c r="I11">
-        <v>0.04010586773357561</v>
+        <v>0.03943680316282304</v>
       </c>
       <c r="J11">
-        <v>0.04010586773357561</v>
+        <v>0.04054922191462366</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.284593633582</v>
+        <v>16.007757</v>
       </c>
       <c r="N11">
-        <v>15.284593633582</v>
+        <v>48.023271</v>
       </c>
       <c r="O11">
-        <v>0.3358378214448343</v>
+        <v>0.3122267160034931</v>
       </c>
       <c r="P11">
-        <v>0.3358378214448343</v>
+        <v>0.3337966108230954</v>
       </c>
       <c r="Q11">
-        <v>20.92691394036369</v>
+        <v>22.738687991522</v>
       </c>
       <c r="R11">
-        <v>20.92691394036369</v>
+        <v>204.648191923698</v>
       </c>
       <c r="S11">
-        <v>0.01346906724679871</v>
+        <v>0.01231322354120441</v>
       </c>
       <c r="T11">
-        <v>0.01346906724679871</v>
+        <v>0.01353519284661497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.36915082219686</v>
+        <v>1.420479333333333</v>
       </c>
       <c r="H12">
-        <v>1.36915082219686</v>
+        <v>4.261438</v>
       </c>
       <c r="I12">
-        <v>0.04010586773357561</v>
+        <v>0.03943680316282304</v>
       </c>
       <c r="J12">
-        <v>0.04010586773357561</v>
+        <v>0.04054922191462366</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.1337881483131</v>
+        <v>16.441887</v>
       </c>
       <c r="N12">
-        <v>13.1337881483131</v>
+        <v>49.325661</v>
       </c>
       <c r="O12">
-        <v>0.2885796577120882</v>
+        <v>0.3206942973278844</v>
       </c>
       <c r="P12">
-        <v>0.2885796577120882</v>
+        <v>0.3428491671966479</v>
       </c>
       <c r="Q12">
-        <v>17.98213684182226</v>
+        <v>23.355360684502</v>
       </c>
       <c r="R12">
-        <v>17.98213684182226</v>
+        <v>210.198246160518</v>
       </c>
       <c r="S12">
-        <v>0.01157373758280153</v>
+        <v>0.01264715787915962</v>
       </c>
       <c r="T12">
-        <v>0.01157373758280153</v>
+        <v>0.01390226696390079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.36915082219686</v>
+        <v>1.420479333333333</v>
       </c>
       <c r="H13">
-        <v>1.36915082219686</v>
+        <v>4.261438</v>
       </c>
       <c r="I13">
-        <v>0.04010586773357561</v>
+        <v>0.03943680316282304</v>
       </c>
       <c r="J13">
-        <v>0.04010586773357561</v>
+        <v>0.04054922191462366</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.16386496929841</v>
+        <v>1.165529</v>
       </c>
       <c r="N13">
-        <v>1.16386496929841</v>
+        <v>2.331058</v>
       </c>
       <c r="O13">
-        <v>0.02557280128706537</v>
+        <v>0.02273330936225701</v>
       </c>
       <c r="P13">
-        <v>0.02557280128706537</v>
+        <v>0.01620254605380927</v>
       </c>
       <c r="Q13">
-        <v>1.593506679641041</v>
+        <v>1.655609856900667</v>
       </c>
       <c r="R13">
-        <v>1.593506679641041</v>
+        <v>9.933659141404</v>
       </c>
       <c r="S13">
-        <v>0.001025619385996056</v>
+        <v>0.000896529046558892</v>
       </c>
       <c r="T13">
-        <v>0.001025619385996056</v>
+        <v>0.000657000635517822</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.963859370343</v>
+        <v>17.64166233333333</v>
       </c>
       <c r="H14">
-        <v>15.963859370343</v>
+        <v>52.924987</v>
       </c>
       <c r="I14">
-        <v>0.4676215520194327</v>
+        <v>0.4897859114022</v>
       </c>
       <c r="J14">
-        <v>0.4676215520194327</v>
+        <v>0.5036016111677731</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.371047606871199</v>
+        <v>8.7735875</v>
       </c>
       <c r="N14">
-        <v>8.371047606871199</v>
+        <v>17.547175</v>
       </c>
       <c r="O14">
-        <v>0.1839312486087846</v>
+        <v>0.171126311618442</v>
       </c>
       <c r="P14">
-        <v>0.1839312486087846</v>
+        <v>0.1219656100585016</v>
       </c>
       <c r="Q14">
-        <v>133.6342267785381</v>
+        <v>154.7806681269542</v>
       </c>
       <c r="R14">
-        <v>133.6342267785381</v>
+        <v>928.684008761725</v>
       </c>
       <c r="S14">
-        <v>0.08601021593931198</v>
+        <v>0.08381525650093549</v>
       </c>
       <c r="T14">
-        <v>0.08601021593931198</v>
+        <v>0.06142207773252176</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.963859370343</v>
+        <v>17.64166233333333</v>
       </c>
       <c r="H15">
-        <v>15.963859370343</v>
+        <v>52.924987</v>
       </c>
       <c r="I15">
-        <v>0.4676215520194327</v>
+        <v>0.4897859114022</v>
       </c>
       <c r="J15">
-        <v>0.4676215520194327</v>
+        <v>0.5036016111677731</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.997655175184464</v>
+        <v>1.161330666666667</v>
       </c>
       <c r="N15">
-        <v>0.997655175184464</v>
+        <v>3.483992</v>
       </c>
       <c r="O15">
-        <v>0.02192078825379897</v>
+        <v>0.02265142207290381</v>
       </c>
       <c r="P15">
-        <v>0.02192078825379897</v>
+        <v>0.02421627468347122</v>
       </c>
       <c r="Q15">
-        <v>15.92642691673969</v>
+        <v>20.48780347867822</v>
       </c>
       <c r="R15">
-        <v>15.92642691673969</v>
+        <v>184.390231308104</v>
       </c>
       <c r="S15">
-        <v>0.01025063302473082</v>
+        <v>0.0110943474045331</v>
       </c>
       <c r="T15">
-        <v>0.01025063302473082</v>
+        <v>0.01219535494707746</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.963859370343</v>
+        <v>17.64166233333333</v>
       </c>
       <c r="H16">
-        <v>15.963859370343</v>
+        <v>52.924987</v>
       </c>
       <c r="I16">
-        <v>0.4676215520194327</v>
+        <v>0.4897859114022</v>
       </c>
       <c r="J16">
-        <v>0.4676215520194327</v>
+        <v>0.5036016111677731</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.56087986054855</v>
+        <v>7.719567000000001</v>
       </c>
       <c r="N16">
-        <v>6.56087986054855</v>
+        <v>23.158701</v>
       </c>
       <c r="O16">
-        <v>0.1441576826934286</v>
+        <v>0.1505679436150197</v>
       </c>
       <c r="P16">
-        <v>0.1441576826934286</v>
+        <v>0.1609697911844745</v>
       </c>
       <c r="Q16">
-        <v>104.7369634395126</v>
+        <v>136.185994373543</v>
       </c>
       <c r="R16">
-        <v>104.7369634395126</v>
+        <v>1225.673949361887</v>
       </c>
       <c r="S16">
-        <v>0.06741123931662599</v>
+        <v>0.07374605749143746</v>
       </c>
       <c r="T16">
-        <v>0.06741123931662599</v>
+        <v>0.08106464618984136</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.963859370343</v>
+        <v>17.64166233333333</v>
       </c>
       <c r="H17">
-        <v>15.963859370343</v>
+        <v>52.924987</v>
       </c>
       <c r="I17">
-        <v>0.4676215520194327</v>
+        <v>0.4897859114022</v>
       </c>
       <c r="J17">
-        <v>0.4676215520194327</v>
+        <v>0.5036016111677731</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.284593633582</v>
+        <v>16.007757</v>
       </c>
       <c r="N17">
-        <v>15.284593633582</v>
+        <v>48.023271</v>
       </c>
       <c r="O17">
-        <v>0.3358378214448343</v>
+        <v>0.3122267160034931</v>
       </c>
       <c r="P17">
-        <v>0.3358378214448343</v>
+        <v>0.3337966108230954</v>
       </c>
       <c r="Q17">
-        <v>244.001103299343</v>
+        <v>282.403443708053</v>
       </c>
       <c r="R17">
-        <v>244.001103299343</v>
+        <v>2541.630993372477</v>
       </c>
       <c r="S17">
-        <v>0.1570450032908585</v>
+        <v>0.1529242466618867</v>
       </c>
       <c r="T17">
-        <v>0.1570450032908585</v>
+        <v>0.168100511012853</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.963859370343</v>
+        <v>17.64166233333333</v>
       </c>
       <c r="H18">
-        <v>15.963859370343</v>
+        <v>52.924987</v>
       </c>
       <c r="I18">
-        <v>0.4676215520194327</v>
+        <v>0.4897859114022</v>
       </c>
       <c r="J18">
-        <v>0.4676215520194327</v>
+        <v>0.5036016111677731</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.1337881483131</v>
+        <v>16.441887</v>
       </c>
       <c r="N18">
-        <v>13.1337881483131</v>
+        <v>49.325661</v>
       </c>
       <c r="O18">
-        <v>0.2885796577120882</v>
+        <v>0.3206942973278844</v>
       </c>
       <c r="P18">
-        <v>0.2885796577120882</v>
+        <v>0.3428491671966479</v>
       </c>
       <c r="Q18">
-        <v>209.6659469995479</v>
+        <v>290.0622185768229</v>
       </c>
       <c r="R18">
-        <v>209.6659469995479</v>
+        <v>2610.559967191407</v>
       </c>
       <c r="S18">
-        <v>0.1349460674205633</v>
+        <v>0.157071548698226</v>
       </c>
       <c r="T18">
-        <v>0.1349460674205633</v>
+        <v>0.1726593929877611</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.963859370343</v>
+        <v>17.64166233333333</v>
       </c>
       <c r="H19">
-        <v>15.963859370343</v>
+        <v>52.924987</v>
       </c>
       <c r="I19">
-        <v>0.4676215520194327</v>
+        <v>0.4897859114022</v>
       </c>
       <c r="J19">
-        <v>0.4676215520194327</v>
+        <v>0.5036016111677731</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.16386496929841</v>
+        <v>1.165529</v>
       </c>
       <c r="N19">
-        <v>1.16386496929841</v>
+        <v>2.331058</v>
       </c>
       <c r="O19">
-        <v>0.02557280128706537</v>
+        <v>0.02273330936225701</v>
       </c>
       <c r="P19">
-        <v>0.02557280128706537</v>
+        <v>0.01620254605380927</v>
       </c>
       <c r="Q19">
-        <v>18.57977669594839</v>
+        <v>20.56186905770767</v>
       </c>
       <c r="R19">
-        <v>18.57977669594839</v>
+        <v>123.371214346246</v>
       </c>
       <c r="S19">
-        <v>0.01195839302734205</v>
+        <v>0.01113445464518122</v>
       </c>
       <c r="T19">
-        <v>0.01195839302734205</v>
+        <v>0.008159628297718392</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.3836674064286</v>
+        <v>13.46419533333333</v>
       </c>
       <c r="H20">
-        <v>13.3836674064286</v>
+        <v>40.39258599999999</v>
       </c>
       <c r="I20">
-        <v>0.3920412463625685</v>
+        <v>0.3738067908812475</v>
       </c>
       <c r="J20">
-        <v>0.3920412463625685</v>
+        <v>0.3843509945280257</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.371047606871199</v>
+        <v>8.7735875</v>
       </c>
       <c r="N20">
-        <v>8.371047606871199</v>
+        <v>17.547175</v>
       </c>
       <c r="O20">
-        <v>0.1839312486087846</v>
+        <v>0.171126311618442</v>
       </c>
       <c r="P20">
-        <v>0.1839312486087846</v>
+        <v>0.1219656100585016</v>
       </c>
       <c r="Q20">
-        <v>112.0353170137442</v>
+        <v>118.1292958740916</v>
       </c>
       <c r="R20">
-        <v>112.0353170137442</v>
+        <v>708.7757752445499</v>
       </c>
       <c r="S20">
-        <v>0.07210863594961135</v>
+        <v>0.06396817738143414</v>
       </c>
       <c r="T20">
-        <v>0.07210863594961135</v>
+        <v>0.04687760352420247</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.3836674064286</v>
+        <v>13.46419533333333</v>
       </c>
       <c r="H21">
-        <v>13.3836674064286</v>
+        <v>40.39258599999999</v>
       </c>
       <c r="I21">
-        <v>0.3920412463625685</v>
+        <v>0.3738067908812475</v>
       </c>
       <c r="J21">
-        <v>0.3920412463625685</v>
+        <v>0.3843509945280257</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.997655175184464</v>
+        <v>1.161330666666667</v>
       </c>
       <c r="N21">
-        <v>0.997655175184464</v>
+        <v>3.483992</v>
       </c>
       <c r="O21">
-        <v>0.02192078825379897</v>
+        <v>0.02265142207290381</v>
       </c>
       <c r="P21">
-        <v>0.02192078825379897</v>
+        <v>0.02421627468347122</v>
       </c>
       <c r="Q21">
-        <v>13.35228505097113</v>
+        <v>15.63638294259022</v>
       </c>
       <c r="R21">
-        <v>13.35228505097113</v>
+        <v>140.727446483312</v>
       </c>
       <c r="S21">
-        <v>0.0085938531482693</v>
+        <v>0.008467255393968828</v>
       </c>
       <c r="T21">
-        <v>0.0085938531482693</v>
+        <v>0.009307549258356015</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.3836674064286</v>
+        <v>13.46419533333333</v>
       </c>
       <c r="H22">
-        <v>13.3836674064286</v>
+        <v>40.39258599999999</v>
       </c>
       <c r="I22">
-        <v>0.3920412463625685</v>
+        <v>0.3738067908812475</v>
       </c>
       <c r="J22">
-        <v>0.3920412463625685</v>
+        <v>0.3843509945280257</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.56087986054855</v>
+        <v>7.719567000000001</v>
       </c>
       <c r="N22">
-        <v>6.56087986054855</v>
+        <v>23.158701</v>
       </c>
       <c r="O22">
-        <v>0.1441576826934286</v>
+        <v>0.1505679436150197</v>
       </c>
       <c r="P22">
-        <v>0.1441576826934286</v>
+        <v>0.1609697911844745</v>
       </c>
       <c r="Q22">
-        <v>87.80863394711744</v>
+        <v>103.937757976754</v>
       </c>
       <c r="R22">
-        <v>87.80863394711744</v>
+        <v>935.4398217907859</v>
       </c>
       <c r="S22">
-        <v>0.05651575759587141</v>
+        <v>0.05628331981231912</v>
       </c>
       <c r="T22">
-        <v>0.05651575759587141</v>
+        <v>0.0618688993307214</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.3836674064286</v>
+        <v>13.46419533333333</v>
       </c>
       <c r="H23">
-        <v>13.3836674064286</v>
+        <v>40.39258599999999</v>
       </c>
       <c r="I23">
-        <v>0.3920412463625685</v>
+        <v>0.3738067908812475</v>
       </c>
       <c r="J23">
-        <v>0.3920412463625685</v>
+        <v>0.3843509945280257</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.284593633582</v>
+        <v>16.007757</v>
       </c>
       <c r="N23">
-        <v>15.284593633582</v>
+        <v>48.023271</v>
       </c>
       <c r="O23">
-        <v>0.3358378214448343</v>
+        <v>0.3122267160034931</v>
       </c>
       <c r="P23">
-        <v>0.3358378214448343</v>
+        <v>0.3337966108230954</v>
       </c>
       <c r="Q23">
-        <v>204.5639176342775</v>
+        <v>215.531567096534</v>
       </c>
       <c r="R23">
-        <v>204.5639176342775</v>
+        <v>1939.784103868806</v>
       </c>
       <c r="S23">
-        <v>0.1316622780949226</v>
+        <v>0.1167124667366564</v>
       </c>
       <c r="T23">
-        <v>0.1316622780949226</v>
+        <v>0.1282950593399411</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.3836674064286</v>
+        <v>13.46419533333333</v>
       </c>
       <c r="H24">
-        <v>13.3836674064286</v>
+        <v>40.39258599999999</v>
       </c>
       <c r="I24">
-        <v>0.3920412463625685</v>
+        <v>0.3738067908812475</v>
       </c>
       <c r="J24">
-        <v>0.3920412463625685</v>
+        <v>0.3843509945280257</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.1337881483131</v>
+        <v>16.441887</v>
       </c>
       <c r="N24">
-        <v>13.1337881483131</v>
+        <v>49.325661</v>
       </c>
       <c r="O24">
-        <v>0.2885796577120882</v>
+        <v>0.3206942973278844</v>
       </c>
       <c r="P24">
-        <v>0.2885796577120882</v>
+        <v>0.3428491671966479</v>
       </c>
       <c r="Q24">
-        <v>175.7782523635163</v>
+        <v>221.3767782165939</v>
       </c>
       <c r="R24">
-        <v>175.7782523635163</v>
+        <v>1992.391003949346</v>
       </c>
       <c r="S24">
-        <v>0.1131351286843304</v>
+        <v>0.1198777061380531</v>
       </c>
       <c r="T24">
-        <v>0.1131351286843304</v>
+        <v>0.131774418385137</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.3836674064286</v>
+        <v>13.46419533333333</v>
       </c>
       <c r="H25">
-        <v>13.3836674064286</v>
+        <v>40.39258599999999</v>
       </c>
       <c r="I25">
-        <v>0.3920412463625685</v>
+        <v>0.3738067908812475</v>
       </c>
       <c r="J25">
-        <v>0.3920412463625685</v>
+        <v>0.3843509945280257</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.16386496929841</v>
+        <v>1.165529</v>
       </c>
       <c r="N25">
-        <v>1.16386496929841</v>
+        <v>2.331058</v>
       </c>
       <c r="O25">
-        <v>0.02557280128706537</v>
+        <v>0.02273330936225701</v>
       </c>
       <c r="P25">
-        <v>0.02557280128706537</v>
+        <v>0.01620254605380927</v>
       </c>
       <c r="Q25">
-        <v>15.57678165508315</v>
+        <v>15.69291012266466</v>
       </c>
       <c r="R25">
-        <v>15.57678165508315</v>
+        <v>94.157460735988</v>
       </c>
       <c r="S25">
-        <v>0.0100255928895634</v>
+        <v>0.008497865418815913</v>
       </c>
       <c r="T25">
-        <v>0.0100255928895634</v>
+        <v>0.006227464689667731</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.477893380492059</v>
+        <v>0.5283693333333334</v>
       </c>
       <c r="H26">
-        <v>0.477893380492059</v>
+        <v>1.585108</v>
       </c>
       <c r="I26">
-        <v>0.01399869787757397</v>
+        <v>0.01466913098062581</v>
       </c>
       <c r="J26">
-        <v>0.01399869787757397</v>
+        <v>0.01508291239967478</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.371047606871199</v>
+        <v>8.7735875</v>
       </c>
       <c r="N26">
-        <v>8.371047606871199</v>
+        <v>17.547175</v>
       </c>
       <c r="O26">
-        <v>0.1839312486087846</v>
+        <v>0.171126311618442</v>
       </c>
       <c r="P26">
-        <v>0.1839312486087846</v>
+        <v>0.1219656100585016</v>
       </c>
       <c r="Q26">
-        <v>4.000468239107638</v>
+        <v>4.635694578316667</v>
       </c>
       <c r="R26">
-        <v>4.000468239107638</v>
+        <v>27.8141674699</v>
       </c>
       <c r="S26">
-        <v>0.002574797979519323</v>
+        <v>0.002510274279362315</v>
       </c>
       <c r="T26">
-        <v>0.002574797979519323</v>
+        <v>0.001839596612285273</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.477893380492059</v>
+        <v>0.5283693333333334</v>
       </c>
       <c r="H27">
-        <v>0.477893380492059</v>
+        <v>1.585108</v>
       </c>
       <c r="I27">
-        <v>0.01399869787757397</v>
+        <v>0.01466913098062581</v>
       </c>
       <c r="J27">
-        <v>0.01399869787757397</v>
+        <v>0.01508291239967478</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.997655175184464</v>
+        <v>1.161330666666667</v>
       </c>
       <c r="N27">
-        <v>0.997655175184464</v>
+        <v>3.483992</v>
       </c>
       <c r="O27">
-        <v>0.02192078825379897</v>
+        <v>0.02265142207290381</v>
       </c>
       <c r="P27">
-        <v>0.02192078825379897</v>
+        <v>0.02421627468347122</v>
       </c>
       <c r="Q27">
-        <v>0.4767728042343008</v>
+        <v>0.6136115101262222</v>
       </c>
       <c r="R27">
-        <v>0.4767728042343008</v>
+        <v>5.522503591135999</v>
       </c>
       <c r="S27">
-        <v>0.0003068624920032041</v>
+        <v>0.0003322766772848647</v>
       </c>
       <c r="T27">
-        <v>0.0003068624920032041</v>
+        <v>0.0003652519496972585</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.477893380492059</v>
+        <v>0.5283693333333334</v>
       </c>
       <c r="H28">
-        <v>0.477893380492059</v>
+        <v>1.585108</v>
       </c>
       <c r="I28">
-        <v>0.01399869787757397</v>
+        <v>0.01466913098062581</v>
       </c>
       <c r="J28">
-        <v>0.01399869787757397</v>
+        <v>0.01508291239967478</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.56087986054855</v>
+        <v>7.719567000000001</v>
       </c>
       <c r="N28">
-        <v>6.56087986054855</v>
+        <v>23.158701</v>
       </c>
       <c r="O28">
-        <v>0.1441576826934286</v>
+        <v>0.1505679436150197</v>
       </c>
       <c r="P28">
-        <v>0.1441576826934286</v>
+        <v>0.1609697911844745</v>
       </c>
       <c r="Q28">
-        <v>3.135401055559815</v>
+        <v>4.078782469412</v>
       </c>
       <c r="R28">
-        <v>3.135401055559815</v>
+        <v>36.709042224708</v>
       </c>
       <c r="S28">
-        <v>0.002018019846756481</v>
+        <v>0.002208700886372206</v>
       </c>
       <c r="T28">
-        <v>0.002018019846756481</v>
+        <v>0.00242789325942937</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.477893380492059</v>
+        <v>0.5283693333333334</v>
       </c>
       <c r="H29">
-        <v>0.477893380492059</v>
+        <v>1.585108</v>
       </c>
       <c r="I29">
-        <v>0.01399869787757397</v>
+        <v>0.01466913098062581</v>
       </c>
       <c r="J29">
-        <v>0.01399869787757397</v>
+        <v>0.01508291239967478</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.284593633582</v>
+        <v>16.007757</v>
       </c>
       <c r="N29">
-        <v>15.284593633582</v>
+        <v>48.023271</v>
       </c>
       <c r="O29">
-        <v>0.3358378214448343</v>
+        <v>0.3122267160034931</v>
       </c>
       <c r="P29">
-        <v>0.3358378214448343</v>
+        <v>0.3337966108230954</v>
       </c>
       <c r="Q29">
-        <v>7.304406120999905</v>
+        <v>8.458007894252001</v>
       </c>
       <c r="R29">
-        <v>7.304406120999905</v>
+        <v>76.122071048268</v>
       </c>
       <c r="S29">
-        <v>0.004701292198268868</v>
+        <v>0.004580094592705897</v>
       </c>
       <c r="T29">
-        <v>0.004701292198268868</v>
+        <v>0.005034625040353081</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.477893380492059</v>
+        <v>0.5283693333333334</v>
       </c>
       <c r="H30">
-        <v>0.477893380492059</v>
+        <v>1.585108</v>
       </c>
       <c r="I30">
-        <v>0.01399869787757397</v>
+        <v>0.01466913098062581</v>
       </c>
       <c r="J30">
-        <v>0.01399869787757397</v>
+        <v>0.01508291239967478</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>13.1337881483131</v>
+        <v>16.441887</v>
       </c>
       <c r="N30">
-        <v>13.1337881483131</v>
+        <v>49.325661</v>
       </c>
       <c r="O30">
-        <v>0.2885796577120882</v>
+        <v>0.3206942973278844</v>
       </c>
       <c r="P30">
-        <v>0.2885796577120882</v>
+        <v>0.3428491671966479</v>
       </c>
       <c r="Q30">
-        <v>6.276550416863887</v>
+        <v>8.687388872931999</v>
       </c>
       <c r="R30">
-        <v>6.276550416863887</v>
+        <v>78.186499856388</v>
       </c>
       <c r="S30">
-        <v>0.004039739441925231</v>
+        <v>0.004704306652242495</v>
       </c>
       <c r="T30">
-        <v>0.004039739441925231</v>
+        <v>0.005171163955128491</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.477893380492059</v>
+        <v>0.5283693333333334</v>
       </c>
       <c r="H31">
-        <v>0.477893380492059</v>
+        <v>1.585108</v>
       </c>
       <c r="I31">
-        <v>0.01399869787757397</v>
+        <v>0.01466913098062581</v>
       </c>
       <c r="J31">
-        <v>0.01399869787757397</v>
+        <v>0.01508291239967478</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.16386496929841</v>
+        <v>1.165529</v>
       </c>
       <c r="N31">
-        <v>1.16386496929841</v>
+        <v>2.331058</v>
       </c>
       <c r="O31">
-        <v>0.02557280128706537</v>
+        <v>0.02273330936225701</v>
       </c>
       <c r="P31">
-        <v>0.02557280128706537</v>
+        <v>0.01620254605380927</v>
       </c>
       <c r="Q31">
-        <v>0.5562033646143036</v>
+        <v>0.6158297807106667</v>
       </c>
       <c r="R31">
-        <v>0.5562033646143036</v>
+        <v>3.694978684264</v>
       </c>
       <c r="S31">
-        <v>0.0003579859191008629</v>
+        <v>0.0003334778926580352</v>
       </c>
       <c r="T31">
-        <v>0.0003579859191008629</v>
+        <v>0.0002443815827813015</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.64006329849918</v>
+        <v>1.65374</v>
       </c>
       <c r="H32">
-        <v>1.64006329849918</v>
+        <v>3.30748</v>
       </c>
       <c r="I32">
-        <v>0.0480415748637241</v>
+        <v>0.0459128248697883</v>
       </c>
       <c r="J32">
-        <v>0.0480415748637241</v>
+        <v>0.03147194456382552</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.371047606871199</v>
+        <v>8.7735875</v>
       </c>
       <c r="N32">
-        <v>8.371047606871199</v>
+        <v>17.547175</v>
       </c>
       <c r="O32">
-        <v>0.1839312486087846</v>
+        <v>0.171126311618442</v>
       </c>
       <c r="P32">
-        <v>0.1839312486087846</v>
+        <v>0.1219656100585016</v>
       </c>
       <c r="Q32">
-        <v>13.72904795001885</v>
+        <v>14.50923259225</v>
       </c>
       <c r="R32">
-        <v>13.72904795001885</v>
+        <v>58.036930369</v>
       </c>
       <c r="S32">
-        <v>0.008836346849817173</v>
+        <v>0.007856892375950346</v>
       </c>
       <c r="T32">
-        <v>0.008836346849817173</v>
+        <v>0.003838494918454322</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.64006329849918</v>
+        <v>1.65374</v>
       </c>
       <c r="H33">
-        <v>1.64006329849918</v>
+        <v>3.30748</v>
       </c>
       <c r="I33">
-        <v>0.0480415748637241</v>
+        <v>0.0459128248697883</v>
       </c>
       <c r="J33">
-        <v>0.0480415748637241</v>
+        <v>0.03147194456382552</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.997655175184464</v>
+        <v>1.161330666666667</v>
       </c>
       <c r="N33">
-        <v>0.997655175184464</v>
+        <v>3.483992</v>
       </c>
       <c r="O33">
-        <v>0.02192078825379897</v>
+        <v>0.02265142207290381</v>
       </c>
       <c r="P33">
-        <v>0.02192078825379897</v>
+        <v>0.02421627468347122</v>
       </c>
       <c r="Q33">
-        <v>1.636217637377809</v>
+        <v>1.920538976693333</v>
       </c>
       <c r="R33">
-        <v>1.636217637377809</v>
+        <v>11.52323386016</v>
       </c>
       <c r="S33">
-        <v>0.001053109189966727</v>
+        <v>0.00103999077468489</v>
       </c>
       <c r="T33">
-        <v>0.001053109189966727</v>
+        <v>0.0007621332543805775</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.64006329849918</v>
+        <v>1.65374</v>
       </c>
       <c r="H34">
-        <v>1.64006329849918</v>
+        <v>3.30748</v>
       </c>
       <c r="I34">
-        <v>0.0480415748637241</v>
+        <v>0.0459128248697883</v>
       </c>
       <c r="J34">
-        <v>0.0480415748637241</v>
+        <v>0.03147194456382552</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.56087986054855</v>
+        <v>7.719567000000001</v>
       </c>
       <c r="N34">
-        <v>6.56087986054855</v>
+        <v>23.158701</v>
       </c>
       <c r="O34">
-        <v>0.1441576826934286</v>
+        <v>0.1505679436150197</v>
       </c>
       <c r="P34">
-        <v>0.1441576826934286</v>
+        <v>0.1609697911844745</v>
       </c>
       <c r="Q34">
-        <v>10.7602582651481</v>
+        <v>12.76615673058</v>
       </c>
       <c r="R34">
-        <v>10.7602582651481</v>
+        <v>76.59694038348</v>
       </c>
       <c r="S34">
-        <v>0.006925562105297334</v>
+        <v>0.006912999626200559</v>
       </c>
       <c r="T34">
-        <v>0.006925562105297334</v>
+        <v>0.00506603234460835</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.64006329849918</v>
+        <v>1.65374</v>
       </c>
       <c r="H35">
-        <v>1.64006329849918</v>
+        <v>3.30748</v>
       </c>
       <c r="I35">
-        <v>0.0480415748637241</v>
+        <v>0.0459128248697883</v>
       </c>
       <c r="J35">
-        <v>0.0480415748637241</v>
+        <v>0.03147194456382552</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.284593633582</v>
+        <v>16.007757</v>
       </c>
       <c r="N35">
-        <v>15.284593633582</v>
+        <v>48.023271</v>
       </c>
       <c r="O35">
-        <v>0.3358378214448343</v>
+        <v>0.3122267160034931</v>
       </c>
       <c r="P35">
-        <v>0.3358378214448343</v>
+        <v>0.3337966108230954</v>
       </c>
       <c r="Q35">
-        <v>25.06770105091206</v>
+        <v>26.47266806118</v>
       </c>
       <c r="R35">
-        <v>25.06770105091206</v>
+        <v>158.83600836708</v>
       </c>
       <c r="S35">
-        <v>0.01613417784101201</v>
+        <v>0.0143352105315375</v>
       </c>
       <c r="T35">
-        <v>0.01613417784101201</v>
+        <v>0.0105052284314173</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.64006329849918</v>
+        <v>1.65374</v>
       </c>
       <c r="H36">
-        <v>1.64006329849918</v>
+        <v>3.30748</v>
       </c>
       <c r="I36">
-        <v>0.0480415748637241</v>
+        <v>0.0459128248697883</v>
       </c>
       <c r="J36">
-        <v>0.0480415748637241</v>
+        <v>0.03147194456382552</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>13.1337881483131</v>
+        <v>16.441887</v>
       </c>
       <c r="N36">
-        <v>13.1337881483131</v>
+        <v>49.325661</v>
       </c>
       <c r="O36">
-        <v>0.2885796577120882</v>
+        <v>0.3206942973278844</v>
       </c>
       <c r="P36">
-        <v>0.2885796577120882</v>
+        <v>0.3428491671966479</v>
       </c>
       <c r="Q36">
-        <v>21.54024391231182</v>
+        <v>27.19060620738</v>
       </c>
       <c r="R36">
-        <v>21.54024391231182</v>
+        <v>163.14363724428</v>
       </c>
       <c r="S36">
-        <v>0.01386382123012316</v>
+        <v>0.01472398110995497</v>
       </c>
       <c r="T36">
-        <v>0.01386382123012316</v>
+        <v>0.01079012998376665</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.64006329849918</v>
+        <v>1.65374</v>
       </c>
       <c r="H37">
-        <v>1.64006329849918</v>
+        <v>3.30748</v>
       </c>
       <c r="I37">
-        <v>0.0480415748637241</v>
+        <v>0.0459128248697883</v>
       </c>
       <c r="J37">
-        <v>0.0480415748637241</v>
+        <v>0.03147194456382552</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.16386496929841</v>
+        <v>1.165529</v>
       </c>
       <c r="N37">
-        <v>1.16386496929841</v>
+        <v>2.331058</v>
       </c>
       <c r="O37">
-        <v>0.02557280128706537</v>
+        <v>0.02273330936225701</v>
       </c>
       <c r="P37">
-        <v>0.02557280128706537</v>
+        <v>0.01620254605380927</v>
       </c>
       <c r="Q37">
-        <v>1.908812220555197</v>
+        <v>1.92748192846</v>
       </c>
       <c r="R37">
-        <v>1.908812220555197</v>
+        <v>7.70992771384</v>
       </c>
       <c r="S37">
-        <v>0.001228557647507691</v>
+        <v>0.001043750451460025</v>
       </c>
       <c r="T37">
-        <v>0.001228557647507691</v>
+        <v>0.0005099256311983151</v>
       </c>
     </row>
   </sheetData>
